--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,55 +439,86 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Compass Small Cap II</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2833.93</v>
+        <v>111.84</v>
+      </c>
+      <c r="C2" t="n">
+        <v>88.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>944.64</v>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>202940.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Compass Small Cap II</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.84</v>
+        <v>978.42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>751.41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>978.42</v>
+        <v>1743.67</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1093.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1743.67</v>
+        <v>944.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>51218.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2833.93</v>
+      </c>
+      <c r="C7" t="n">
+        <v>204874.75</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -456,6 +461,9 @@
       </c>
       <c r="C2" t="n">
         <v>88.83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>88.95999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -468,6 +476,9 @@
       <c r="C3" t="n">
         <v>202940.87</v>
       </c>
+      <c r="D3" t="n">
+        <v>204681.58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -481,6 +492,9 @@
       <c r="C4" t="n">
         <v>751.41</v>
       </c>
+      <c r="D4" t="n">
+        <v>782.61</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,6 +508,9 @@
       <c r="C5" t="n">
         <v>1093.64</v>
       </c>
+      <c r="D5" t="n">
+        <v>1180.31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -507,6 +524,9 @@
       <c r="C6" t="n">
         <v>51218.69</v>
       </c>
+      <c r="D6" t="n">
+        <v>51683.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -519,6 +539,9 @@
       </c>
       <c r="C7" t="n">
         <v>204874.75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>206733.46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -464,6 +469,9 @@
       </c>
       <c r="D2" t="n">
         <v>88.95999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>93.70999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -479,6 +487,9 @@
       <c r="D3" t="n">
         <v>204681.58</v>
       </c>
+      <c r="E3" t="n">
+        <v>203801.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -495,6 +506,9 @@
       <c r="D4" t="n">
         <v>782.61</v>
       </c>
+      <c r="E4" t="n">
+        <v>768.38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -511,6 +525,9 @@
       <c r="D5" t="n">
         <v>1180.31</v>
       </c>
+      <c r="E5" t="n">
+        <v>1211.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -527,6 +544,9 @@
       <c r="D6" t="n">
         <v>51683.36</v>
       </c>
+      <c r="E6" t="n">
+        <v>51468.72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -542,6 +562,9 @@
       </c>
       <c r="D7" t="n">
         <v>206733.46</v>
+      </c>
+      <c r="E7" t="n">
+        <v>205874.89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -472,6 +477,9 @@
       </c>
       <c r="E2" t="n">
         <v>93.70999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>98.98</v>
       </c>
     </row>
     <row r="3">
@@ -490,6 +498,9 @@
       <c r="E3" t="n">
         <v>203801.3</v>
       </c>
+      <c r="F3" t="n">
+        <v>202924.47</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +520,9 @@
       <c r="E4" t="n">
         <v>768.38</v>
       </c>
+      <c r="F4" t="n">
+        <v>769.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -528,6 +542,9 @@
       <c r="E5" t="n">
         <v>1211.5</v>
       </c>
+      <c r="F5" t="n">
+        <v>1257.86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -547,6 +564,9 @@
       <c r="E6" t="n">
         <v>51468.72</v>
       </c>
+      <c r="F6" t="n">
+        <v>51262.64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -565,6 +585,9 @@
       </c>
       <c r="E7" t="n">
         <v>205874.89</v>
+      </c>
+      <c r="F7" t="n">
+        <v>205050.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>98.98</v>
       </c>
+      <c r="G2" t="n">
+        <v>109.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -501,6 +509,9 @@
       <c r="F3" t="n">
         <v>202924.47</v>
       </c>
+      <c r="G3" t="n">
+        <v>204105.35</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +534,9 @@
       <c r="F4" t="n">
         <v>769.25</v>
       </c>
+      <c r="G4" t="n">
+        <v>770.88</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -545,6 +559,9 @@
       <c r="F5" t="n">
         <v>1257.86</v>
       </c>
+      <c r="G5" t="n">
+        <v>1262.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -567,6 +584,9 @@
       <c r="F6" t="n">
         <v>51262.64</v>
       </c>
+      <c r="G6" t="n">
+        <v>51562.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -588,6 +608,9 @@
       </c>
       <c r="F7" t="n">
         <v>205050.56</v>
+      </c>
+      <c r="G7" t="n">
+        <v>206248.23</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>109.61</v>
       </c>
+      <c r="H2" t="n">
+        <v>98.53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -512,6 +520,9 @@
       <c r="G3" t="n">
         <v>204105.35</v>
       </c>
+      <c r="H3" t="n">
+        <v>202952.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +548,9 @@
       <c r="G4" t="n">
         <v>770.88</v>
       </c>
+      <c r="H4" t="n">
+        <v>1393.34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -562,6 +576,9 @@
       <c r="G5" t="n">
         <v>1262.39</v>
       </c>
+      <c r="H5" t="n">
+        <v>1261.35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -587,6 +604,9 @@
       <c r="G6" t="n">
         <v>51562.06</v>
       </c>
+      <c r="H6" t="n">
+        <v>51426.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -611,6 +631,9 @@
       </c>
       <c r="G7" t="n">
         <v>206248.23</v>
+      </c>
+      <c r="H7" t="n">
+        <v>205705.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>98.53</v>
       </c>
+      <c r="I2" t="n">
+        <v>103.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -523,6 +531,9 @@
       <c r="H3" t="n">
         <v>202952.4</v>
       </c>
+      <c r="I3" t="n">
+        <v>203523.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +562,9 @@
       <c r="H4" t="n">
         <v>1393.34</v>
       </c>
+      <c r="I4" t="n">
+        <v>717.49</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -579,6 +593,9 @@
       <c r="H5" t="n">
         <v>1261.35</v>
       </c>
+      <c r="I5" t="n">
+        <v>1331.86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -607,6 +624,9 @@
       <c r="H6" t="n">
         <v>51426.4</v>
       </c>
+      <c r="I6" t="n">
+        <v>51419.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -634,6 +654,9 @@
       </c>
       <c r="H7" t="n">
         <v>205705.62</v>
+      </c>
+      <c r="I7" t="n">
+        <v>205676.25</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>103.7</v>
       </c>
+      <c r="J2" t="n">
+        <v>102.42</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -534,6 +542,9 @@
       <c r="I3" t="n">
         <v>203523.2</v>
       </c>
+      <c r="J3" t="n">
+        <v>204568.79</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +576,9 @@
       <c r="I4" t="n">
         <v>717.49</v>
       </c>
+      <c r="J4" t="n">
+        <v>1350.37</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -596,6 +610,9 @@
       <c r="I5" t="n">
         <v>1331.86</v>
       </c>
+      <c r="J5" t="n">
+        <v>1287.86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -627,6 +644,9 @@
       <c r="I6" t="n">
         <v>51419.06</v>
       </c>
+      <c r="J6" t="n">
+        <v>51827.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -657,6 +677,9 @@
       </c>
       <c r="I7" t="n">
         <v>205676.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>207309.44</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>102.42</v>
       </c>
+      <c r="K2" t="n">
+        <v>93.84</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -545,6 +553,9 @@
       <c r="J3" t="n">
         <v>204568.79</v>
       </c>
+      <c r="K3" t="n">
+        <v>204087.77</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +590,9 @@
       <c r="J4" t="n">
         <v>1350.37</v>
       </c>
+      <c r="K4" t="n">
+        <v>1123.94</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -613,6 +627,9 @@
       <c r="J5" t="n">
         <v>1287.86</v>
       </c>
+      <c r="K5" t="n">
+        <v>1103.48</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -647,6 +664,9 @@
       <c r="J6" t="n">
         <v>51827.36</v>
       </c>
+      <c r="K6" t="n">
+        <v>51602.26</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -680,6 +700,9 @@
       </c>
       <c r="J7" t="n">
         <v>207309.44</v>
+      </c>
+      <c r="K7" t="n">
+        <v>206409.03</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>93.84</v>
       </c>
+      <c r="L2" t="n">
+        <v>105.29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -556,6 +564,9 @@
       <c r="K3" t="n">
         <v>204087.77</v>
       </c>
+      <c r="L3" t="n">
+        <v>204130.81</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +604,9 @@
       <c r="K4" t="n">
         <v>1123.94</v>
       </c>
+      <c r="L4" t="n">
+        <v>1161.33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -630,6 +644,9 @@
       <c r="K5" t="n">
         <v>1103.48</v>
       </c>
+      <c r="L5" t="n">
+        <v>1137.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -667,6 +684,9 @@
       <c r="K6" t="n">
         <v>51602.26</v>
       </c>
+      <c r="L6" t="n">
+        <v>51633.66</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -703,6 +723,9 @@
       </c>
       <c r="K7" t="n">
         <v>206409.03</v>
+      </c>
+      <c r="L7" t="n">
+        <v>206534.63</v>
       </c>
     </row>
   </sheetData>
